--- a/investing/sp500_dfs/commodities_ohlc.xlsx
+++ b/investing/sp500_dfs/commodities_ohlc.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG599"/>
+  <dimension ref="A1:AG615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60907,7 +60907,7 @@
         <v>2412.199951171875</v>
       </c>
       <c r="G599" t="n">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="H599" t="n">
         <v>0.01474360414002291</v>
@@ -60931,7 +60931,7 @@
         <v>1084.599975585938</v>
       </c>
       <c r="O599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P599" t="n">
         <v>0</v>
@@ -60955,7 +60955,7 @@
         <v>5.057000160217285</v>
       </c>
       <c r="W599" t="n">
-        <v>1150</v>
+        <v>790</v>
       </c>
       <c r="X599" t="n">
         <v>0.04224052118254837</v>
@@ -60979,13 +60979,1629 @@
         <v>80.05999755859375</v>
       </c>
       <c r="AE599" t="n">
-        <v>230277</v>
+        <v>94152</v>
       </c>
       <c r="AF599" t="n">
         <v>0.0144303720208663</v>
       </c>
       <c r="AG599" t="n">
         <v>0.008566393659663444</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B600" t="n">
+        <v>2415.800048828125</v>
+      </c>
+      <c r="C600" t="n">
+        <v>2435.800048828125</v>
+      </c>
+      <c r="D600" t="n">
+        <v>2409.699951171875</v>
+      </c>
+      <c r="E600" t="n">
+        <v>2433.89990234375</v>
+      </c>
+      <c r="F600" t="n">
+        <v>2433.89990234375</v>
+      </c>
+      <c r="G600" t="n">
+        <v>40</v>
+      </c>
+      <c r="H600" t="n">
+        <v>0.01083126454957893</v>
+      </c>
+      <c r="I600" t="n">
+        <v>0.007492281293894757</v>
+      </c>
+      <c r="J600" t="n">
+        <v>1059.699951171875</v>
+      </c>
+      <c r="K600" t="n">
+        <v>1059.699951171875</v>
+      </c>
+      <c r="L600" t="n">
+        <v>1059.699951171875</v>
+      </c>
+      <c r="M600" t="n">
+        <v>1059.699951171875</v>
+      </c>
+      <c r="N600" t="n">
+        <v>1059.699951171875</v>
+      </c>
+      <c r="O600" t="n">
+        <v>0</v>
+      </c>
+      <c r="P600" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q600" t="n">
+        <v>0</v>
+      </c>
+      <c r="R600" t="n">
+        <v>5.191999912261963</v>
+      </c>
+      <c r="S600" t="n">
+        <v>5.198500156402588</v>
+      </c>
+      <c r="T600" t="n">
+        <v>5.028999805450439</v>
+      </c>
+      <c r="U600" t="n">
+        <v>5.087500095367432</v>
+      </c>
+      <c r="V600" t="n">
+        <v>5.087500095367432</v>
+      </c>
+      <c r="W600" t="n">
+        <v>747</v>
+      </c>
+      <c r="X600" t="n">
+        <v>0.03370458490939762</v>
+      </c>
+      <c r="Y600" t="n">
+        <v>-0.02012708371734246</v>
+      </c>
+      <c r="Z600" t="n">
+        <v>80.01000213623047</v>
+      </c>
+      <c r="AA600" t="n">
+        <v>80.59999847412109</v>
+      </c>
+      <c r="AB600" t="n">
+        <v>79.16999816894531</v>
+      </c>
+      <c r="AC600" t="n">
+        <v>79.80000305175781</v>
+      </c>
+      <c r="AD600" t="n">
+        <v>79.80000305175781</v>
+      </c>
+      <c r="AE600" t="n">
+        <v>85072</v>
+      </c>
+      <c r="AF600" t="n">
+        <v>0.01806240164518159</v>
+      </c>
+      <c r="AG600" t="n">
+        <v>-0.0026246604032718</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B601" t="n">
+        <v>2429.5</v>
+      </c>
+      <c r="C601" t="n">
+        <v>2429.5</v>
+      </c>
+      <c r="D601" t="n">
+        <v>2421</v>
+      </c>
+      <c r="E601" t="n">
+        <v>2421.699951171875</v>
+      </c>
+      <c r="F601" t="n">
+        <v>2421.699951171875</v>
+      </c>
+      <c r="G601" t="n">
+        <v>6</v>
+      </c>
+      <c r="H601" t="n">
+        <v>0.003510945890128046</v>
+      </c>
+      <c r="I601" t="n">
+        <v>-0.003210557245575221</v>
+      </c>
+      <c r="J601" t="n">
+        <v>1056.699951171875</v>
+      </c>
+      <c r="K601" t="n">
+        <v>1056.699951171875</v>
+      </c>
+      <c r="L601" t="n">
+        <v>1056.699951171875</v>
+      </c>
+      <c r="M601" t="n">
+        <v>1056.699951171875</v>
+      </c>
+      <c r="N601" t="n">
+        <v>1056.699951171875</v>
+      </c>
+      <c r="O601" t="n">
+        <v>0</v>
+      </c>
+      <c r="P601" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q601" t="n">
+        <v>0</v>
+      </c>
+      <c r="R601" t="n">
+        <v>5.057499885559082</v>
+      </c>
+      <c r="S601" t="n">
+        <v>5.161499977111816</v>
+      </c>
+      <c r="T601" t="n">
+        <v>5.057499885559082</v>
+      </c>
+      <c r="U601" t="n">
+        <v>5.11899995803833</v>
+      </c>
+      <c r="V601" t="n">
+        <v>5.11899995803833</v>
+      </c>
+      <c r="W601" t="n">
+        <v>568</v>
+      </c>
+      <c r="X601" t="n">
+        <v>0.02056353809313783</v>
+      </c>
+      <c r="Y601" t="n">
+        <v>0.01216017278712197</v>
+      </c>
+      <c r="Z601" t="n">
+        <v>79.69999694824219</v>
+      </c>
+      <c r="AA601" t="n">
+        <v>79.72000122070312</v>
+      </c>
+      <c r="AB601" t="n">
+        <v>78.08000183105469</v>
+      </c>
+      <c r="AC601" t="n">
+        <v>79.26000213623047</v>
+      </c>
+      <c r="AD601" t="n">
+        <v>79.26000213623047</v>
+      </c>
+      <c r="AE601" t="n">
+        <v>371672</v>
+      </c>
+      <c r="AF601" t="n">
+        <v>0.02100409005108607</v>
+      </c>
+      <c r="AG601" t="n">
+        <v>-0.005520637752313277</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B602" t="n">
+        <v>2417.5</v>
+      </c>
+      <c r="C602" t="n">
+        <v>2417.60009765625</v>
+      </c>
+      <c r="D602" t="n">
+        <v>2375.800048828125</v>
+      </c>
+      <c r="E602" t="n">
+        <v>2389.199951171875</v>
+      </c>
+      <c r="F602" t="n">
+        <v>2389.199951171875</v>
+      </c>
+      <c r="G602" t="n">
+        <v>180</v>
+      </c>
+      <c r="H602" t="n">
+        <v>0.01759409376590554</v>
+      </c>
+      <c r="I602" t="n">
+        <v>-0.01170632836737332</v>
+      </c>
+      <c r="J602" t="n">
+        <v>1044.099975585938</v>
+      </c>
+      <c r="K602" t="n">
+        <v>1044.099975585938</v>
+      </c>
+      <c r="L602" t="n">
+        <v>1044.099975585938</v>
+      </c>
+      <c r="M602" t="n">
+        <v>1044.099975585938</v>
+      </c>
+      <c r="N602" t="n">
+        <v>1044.099975585938</v>
+      </c>
+      <c r="O602" t="n">
+        <v>0</v>
+      </c>
+      <c r="P602" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q602" t="n">
+        <v>0</v>
+      </c>
+      <c r="R602" t="n">
+        <v>5.074999809265137</v>
+      </c>
+      <c r="S602" t="n">
+        <v>5.074999809265137</v>
+      </c>
+      <c r="T602" t="n">
+        <v>4.839000225067139</v>
+      </c>
+      <c r="U602" t="n">
+        <v>4.867499828338623</v>
+      </c>
+      <c r="V602" t="n">
+        <v>4.867499828338623</v>
+      </c>
+      <c r="W602" t="n">
+        <v>976</v>
+      </c>
+      <c r="X602" t="n">
+        <v>0.04877031891328826</v>
+      </c>
+      <c r="Y602" t="n">
+        <v>-0.04088669728572065</v>
+      </c>
+      <c r="Z602" t="n">
+        <v>78.20999908447266</v>
+      </c>
+      <c r="AA602" t="n">
+        <v>78.41000366210938</v>
+      </c>
+      <c r="AB602" t="n">
+        <v>77.25</v>
+      </c>
+      <c r="AC602" t="n">
+        <v>77.56999969482422</v>
+      </c>
+      <c r="AD602" t="n">
+        <v>77.56999969482422</v>
+      </c>
+      <c r="AE602" t="n">
+        <v>314145</v>
+      </c>
+      <c r="AF602" t="n">
+        <v>0.01501622863572006</v>
+      </c>
+      <c r="AG602" t="n">
+        <v>-0.008183089082473843</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B603" t="n">
+        <v>2371.199951171875</v>
+      </c>
+      <c r="C603" t="n">
+        <v>2371.199951171875</v>
+      </c>
+      <c r="D603" t="n">
+        <v>2335</v>
+      </c>
+      <c r="E603" t="n">
+        <v>2335</v>
+      </c>
+      <c r="F603" t="n">
+        <v>2335</v>
+      </c>
+      <c r="G603" t="n">
+        <v>365</v>
+      </c>
+      <c r="H603" t="n">
+        <v>0.01550319108003212</v>
+      </c>
+      <c r="I603" t="n">
+        <v>-0.01526651143611257</v>
+      </c>
+      <c r="J603" t="n">
+        <v>1025.699951171875</v>
+      </c>
+      <c r="K603" t="n">
+        <v>1025.699951171875</v>
+      </c>
+      <c r="L603" t="n">
+        <v>1025.699951171875</v>
+      </c>
+      <c r="M603" t="n">
+        <v>1025.699951171875</v>
+      </c>
+      <c r="N603" t="n">
+        <v>1025.699951171875</v>
+      </c>
+      <c r="O603" t="n">
+        <v>2</v>
+      </c>
+      <c r="P603" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q603" t="n">
+        <v>0</v>
+      </c>
+      <c r="R603" t="n">
+        <v>4.809999942779541</v>
+      </c>
+      <c r="S603" t="n">
+        <v>4.848000049591064</v>
+      </c>
+      <c r="T603" t="n">
+        <v>4.803500175476074</v>
+      </c>
+      <c r="U603" t="n">
+        <v>4.816500186920166</v>
+      </c>
+      <c r="V603" t="n">
+        <v>4.816500186920166</v>
+      </c>
+      <c r="W603" t="n">
+        <v>713</v>
+      </c>
+      <c r="X603" t="n">
+        <v>0.009264051730898471</v>
+      </c>
+      <c r="Y603" t="n">
+        <v>0.001351402124314522</v>
+      </c>
+      <c r="Z603" t="n">
+        <v>77.29000091552734</v>
+      </c>
+      <c r="AA603" t="n">
+        <v>78.66000366210938</v>
+      </c>
+      <c r="AB603" t="n">
+        <v>76.43000030517578</v>
+      </c>
+      <c r="AC603" t="n">
+        <v>76.87000274658203</v>
+      </c>
+      <c r="AD603" t="n">
+        <v>76.87000274658203</v>
+      </c>
+      <c r="AE603" t="n">
+        <v>330273</v>
+      </c>
+      <c r="AF603" t="n">
+        <v>0.02917706853368388</v>
+      </c>
+      <c r="AG603" t="n">
+        <v>-0.005434055685991537</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B604" t="n">
+        <v>2342.60009765625</v>
+      </c>
+      <c r="C604" t="n">
+        <v>2345.39990234375</v>
+      </c>
+      <c r="D604" t="n">
+        <v>2332.5</v>
+      </c>
+      <c r="E604" t="n">
+        <v>2332.5</v>
+      </c>
+      <c r="F604" t="n">
+        <v>2332.5</v>
+      </c>
+      <c r="G604" t="n">
+        <v>25</v>
+      </c>
+      <c r="H604" t="n">
+        <v>0.005530504756162916</v>
+      </c>
+      <c r="I604" t="n">
+        <v>-0.004311490324940674</v>
+      </c>
+      <c r="J604" t="n">
+        <v>1034.800048828125</v>
+      </c>
+      <c r="K604" t="n">
+        <v>1034.800048828125</v>
+      </c>
+      <c r="L604" t="n">
+        <v>1034.800048828125</v>
+      </c>
+      <c r="M604" t="n">
+        <v>1034.800048828125</v>
+      </c>
+      <c r="N604" t="n">
+        <v>1034.800048828125</v>
+      </c>
+      <c r="O604" t="n">
+        <v>2</v>
+      </c>
+      <c r="P604" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q604" t="n">
+        <v>0</v>
+      </c>
+      <c r="R604" t="n">
+        <v>4.815999984741211</v>
+      </c>
+      <c r="S604" t="n">
+        <v>4.824999809265137</v>
+      </c>
+      <c r="T604" t="n">
+        <v>4.772500038146973</v>
+      </c>
+      <c r="U604" t="n">
+        <v>4.778500080108643</v>
+      </c>
+      <c r="V604" t="n">
+        <v>4.778500080108643</v>
+      </c>
+      <c r="W604" t="n">
+        <v>689</v>
+      </c>
+      <c r="X604" t="n">
+        <v>0.0110004757880627</v>
+      </c>
+      <c r="Y604" t="n">
+        <v>-0.007786525072961234</v>
+      </c>
+      <c r="Z604" t="n">
+        <v>77.04000091552734</v>
+      </c>
+      <c r="AA604" t="n">
+        <v>78.05000305175781</v>
+      </c>
+      <c r="AB604" t="n">
+        <v>76.15000152587891</v>
+      </c>
+      <c r="AC604" t="n">
+        <v>77.72000122070312</v>
+      </c>
+      <c r="AD604" t="n">
+        <v>77.72000122070312</v>
+      </c>
+      <c r="AE604" t="n">
+        <v>299075</v>
+      </c>
+      <c r="AF604" t="n">
+        <v>0.02495077462648779</v>
+      </c>
+      <c r="AG604" t="n">
+        <v>0.008826587449309437</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>45440</v>
+      </c>
+      <c r="B605" t="n">
+        <v>2336.89990234375</v>
+      </c>
+      <c r="C605" t="n">
+        <v>2359.699951171875</v>
+      </c>
+      <c r="D605" t="n">
+        <v>2336.89990234375</v>
+      </c>
+      <c r="E605" t="n">
+        <v>2355.199951171875</v>
+      </c>
+      <c r="F605" t="n">
+        <v>2355.199951171875</v>
+      </c>
+      <c r="G605" t="n">
+        <v>26</v>
+      </c>
+      <c r="H605" t="n">
+        <v>0.009756536343408683</v>
+      </c>
+      <c r="I605" t="n">
+        <v>0.007830908294262544</v>
+      </c>
+      <c r="J605" t="n">
+        <v>1061.699951171875</v>
+      </c>
+      <c r="K605" t="n">
+        <v>1061.699951171875</v>
+      </c>
+      <c r="L605" t="n">
+        <v>1061.699951171875</v>
+      </c>
+      <c r="M605" t="n">
+        <v>1061.699951171875</v>
+      </c>
+      <c r="N605" t="n">
+        <v>1061.699951171875</v>
+      </c>
+      <c r="O605" t="n">
+        <v>2</v>
+      </c>
+      <c r="P605" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q605" t="n">
+        <v>0</v>
+      </c>
+      <c r="R605" t="n">
+        <v>4.863500118255615</v>
+      </c>
+      <c r="S605" t="n">
+        <v>4.89900016784668</v>
+      </c>
+      <c r="T605" t="n">
+        <v>4.860000133514404</v>
+      </c>
+      <c r="U605" t="n">
+        <v>4.875500202178955</v>
+      </c>
+      <c r="V605" t="n">
+        <v>4.875500202178955</v>
+      </c>
+      <c r="W605" t="n">
+        <v>461</v>
+      </c>
+      <c r="X605" t="n">
+        <v>0.008024698201823579</v>
+      </c>
+      <c r="Y605" t="n">
+        <v>0.002467376093668914</v>
+      </c>
+      <c r="Z605" t="n">
+        <v>77.80999755859375</v>
+      </c>
+      <c r="AA605" t="n">
+        <v>80.29000091552734</v>
+      </c>
+      <c r="AB605" t="n">
+        <v>77.69000244140625</v>
+      </c>
+      <c r="AC605" t="n">
+        <v>79.83000183105469</v>
+      </c>
+      <c r="AD605" t="n">
+        <v>79.83000183105469</v>
+      </c>
+      <c r="AE605" t="n">
+        <v>334074</v>
+      </c>
+      <c r="AF605" t="n">
+        <v>0.03346631989208664</v>
+      </c>
+      <c r="AG605" t="n">
+        <v>0.02596072915874083</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B606" t="n">
+        <v>2340.300048828125</v>
+      </c>
+      <c r="C606" t="n">
+        <v>2340.300048828125</v>
+      </c>
+      <c r="D606" t="n">
+        <v>2340.300048828125</v>
+      </c>
+      <c r="E606" t="n">
+        <v>2340.300048828125</v>
+      </c>
+      <c r="F606" t="n">
+        <v>2340.300048828125</v>
+      </c>
+      <c r="G606" t="n">
+        <v>119317</v>
+      </c>
+      <c r="H606" t="n">
+        <v>0</v>
+      </c>
+      <c r="I606" t="n">
+        <v>0</v>
+      </c>
+      <c r="J606" t="n">
+        <v>1042.699951171875</v>
+      </c>
+      <c r="K606" t="n">
+        <v>1042.699951171875</v>
+      </c>
+      <c r="L606" t="n">
+        <v>1042.699951171875</v>
+      </c>
+      <c r="M606" t="n">
+        <v>1042.699951171875</v>
+      </c>
+      <c r="N606" t="n">
+        <v>1042.699951171875</v>
+      </c>
+      <c r="O606" t="n">
+        <v>59</v>
+      </c>
+      <c r="P606" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q606" t="n">
+        <v>0</v>
+      </c>
+      <c r="R606" t="n">
+        <v>4.802000045776367</v>
+      </c>
+      <c r="S606" t="n">
+        <v>4.805500030517578</v>
+      </c>
+      <c r="T606" t="n">
+        <v>4.796000003814697</v>
+      </c>
+      <c r="U606" t="n">
+        <v>4.805500030517578</v>
+      </c>
+      <c r="V606" t="n">
+        <v>4.805500030517578</v>
+      </c>
+      <c r="W606" t="n">
+        <v>1059</v>
+      </c>
+      <c r="X606" t="n">
+        <v>0.001980822913954257</v>
+      </c>
+      <c r="Y606" t="n">
+        <v>0.0007288597892224874</v>
+      </c>
+      <c r="Z606" t="n">
+        <v>80.26000213623047</v>
+      </c>
+      <c r="AA606" t="n">
+        <v>80.62000274658203</v>
+      </c>
+      <c r="AB606" t="n">
+        <v>78.98999786376953</v>
+      </c>
+      <c r="AC606" t="n">
+        <v>79.23000335693359</v>
+      </c>
+      <c r="AD606" t="n">
+        <v>79.23000335693359</v>
+      </c>
+      <c r="AE606" t="n">
+        <v>259594</v>
+      </c>
+      <c r="AF606" t="n">
+        <v>0.02063558585763853</v>
+      </c>
+      <c r="AG606" t="n">
+        <v>-0.01283327625071068</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="2" t="n">
+        <v>45442</v>
+      </c>
+      <c r="B607" t="n">
+        <v>2336.89990234375</v>
+      </c>
+      <c r="C607" t="n">
+        <v>2349.5</v>
+      </c>
+      <c r="D607" t="n">
+        <v>2320.800048828125</v>
+      </c>
+      <c r="E607" t="n">
+        <v>2342.89990234375</v>
+      </c>
+      <c r="F607" t="n">
+        <v>2342.89990234375</v>
+      </c>
+      <c r="G607" t="n">
+        <v>32587</v>
+      </c>
+      <c r="H607" t="n">
+        <v>0.01236640407103011</v>
+      </c>
+      <c r="I607" t="n">
+        <v>0.002567504065528187</v>
+      </c>
+      <c r="J607" t="n">
+        <v>1034.800048828125</v>
+      </c>
+      <c r="K607" t="n">
+        <v>1038.300048828125</v>
+      </c>
+      <c r="L607" t="n">
+        <v>1032.699951171875</v>
+      </c>
+      <c r="M607" t="n">
+        <v>1032.900024414062</v>
+      </c>
+      <c r="N607" t="n">
+        <v>1032.900024414062</v>
+      </c>
+      <c r="O607" t="n">
+        <v>11</v>
+      </c>
+      <c r="P607" t="n">
+        <v>0.005422773236209789</v>
+      </c>
+      <c r="Q607" t="n">
+        <v>-0.001836127101283201</v>
+      </c>
+      <c r="R607" t="n">
+        <v>4.775499820709229</v>
+      </c>
+      <c r="S607" t="n">
+        <v>4.785500049591064</v>
+      </c>
+      <c r="T607" t="n">
+        <v>4.642499923706055</v>
+      </c>
+      <c r="U607" t="n">
+        <v>4.671999931335449</v>
+      </c>
+      <c r="V607" t="n">
+        <v>4.671999931335449</v>
+      </c>
+      <c r="W607" t="n">
+        <v>1170</v>
+      </c>
+      <c r="X607" t="n">
+        <v>0.03080239703501263</v>
+      </c>
+      <c r="Y607" t="n">
+        <v>-0.02167310088149226</v>
+      </c>
+      <c r="Z607" t="n">
+        <v>79.27999877929688</v>
+      </c>
+      <c r="AA607" t="n">
+        <v>79.41999816894531</v>
+      </c>
+      <c r="AB607" t="n">
+        <v>77.62999725341797</v>
+      </c>
+      <c r="AC607" t="n">
+        <v>77.91000366210938</v>
+      </c>
+      <c r="AD607" t="n">
+        <v>77.91000366210938</v>
+      </c>
+      <c r="AE607" t="n">
+        <v>373779</v>
+      </c>
+      <c r="AF607" t="n">
+        <v>0.02305810870614879</v>
+      </c>
+      <c r="AG607" t="n">
+        <v>-0.01728046339911473</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B608" t="n">
+        <v>2344.10009765625</v>
+      </c>
+      <c r="C608" t="n">
+        <v>2354</v>
+      </c>
+      <c r="D608" t="n">
+        <v>2319</v>
+      </c>
+      <c r="E608" t="n">
+        <v>2322.89990234375</v>
+      </c>
+      <c r="F608" t="n">
+        <v>2322.89990234375</v>
+      </c>
+      <c r="G608" t="n">
+        <v>941</v>
+      </c>
+      <c r="H608" t="n">
+        <v>0.01509271237602415</v>
+      </c>
+      <c r="I608" t="n">
+        <v>-0.009044065709351332</v>
+      </c>
+      <c r="J608" t="n">
+        <v>1028</v>
+      </c>
+      <c r="K608" t="n">
+        <v>1037.699951171875</v>
+      </c>
+      <c r="L608" t="n">
+        <v>1028</v>
+      </c>
+      <c r="M608" t="n">
+        <v>1037.699951171875</v>
+      </c>
+      <c r="N608" t="n">
+        <v>1037.699951171875</v>
+      </c>
+      <c r="O608" t="n">
+        <v>2</v>
+      </c>
+      <c r="P608" t="n">
+        <v>0.00943575016719358</v>
+      </c>
+      <c r="Q608" t="n">
+        <v>0.00943575016719358</v>
+      </c>
+      <c r="R608" t="n">
+        <v>4.638500213623047</v>
+      </c>
+      <c r="S608" t="n">
+        <v>4.651500225067139</v>
+      </c>
+      <c r="T608" t="n">
+        <v>4.583499908447266</v>
+      </c>
+      <c r="U608" t="n">
+        <v>4.610000133514404</v>
+      </c>
+      <c r="V608" t="n">
+        <v>4.610000133514404</v>
+      </c>
+      <c r="W608" t="n">
+        <v>615</v>
+      </c>
+      <c r="X608" t="n">
+        <v>0.01483589352637497</v>
+      </c>
+      <c r="Y608" t="n">
+        <v>-0.006144244647211451</v>
+      </c>
+      <c r="Z608" t="n">
+        <v>77.91000366210938</v>
+      </c>
+      <c r="AA608" t="n">
+        <v>78.62000274658203</v>
+      </c>
+      <c r="AB608" t="n">
+        <v>76.66999816894531</v>
+      </c>
+      <c r="AC608" t="n">
+        <v>76.98999786376953</v>
+      </c>
+      <c r="AD608" t="n">
+        <v>76.98999786376953</v>
+      </c>
+      <c r="AE608" t="n">
+        <v>345120</v>
+      </c>
+      <c r="AF608" t="n">
+        <v>0.02543373710978587</v>
+      </c>
+      <c r="AG608" t="n">
+        <v>-0.01180857085220852</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B609" t="n">
+        <v>2322.60009765625</v>
+      </c>
+      <c r="C609" t="n">
+        <v>2347.5</v>
+      </c>
+      <c r="D609" t="n">
+        <v>2312</v>
+      </c>
+      <c r="E609" t="n">
+        <v>2346.60009765625</v>
+      </c>
+      <c r="F609" t="n">
+        <v>2346.60009765625</v>
+      </c>
+      <c r="G609" t="n">
+        <v>781</v>
+      </c>
+      <c r="H609" t="n">
+        <v>0.01535467128027682</v>
+      </c>
+      <c r="I609" t="n">
+        <v>0.01033324678846718</v>
+      </c>
+      <c r="J609" t="n">
+        <v>1018.5</v>
+      </c>
+      <c r="K609" t="n">
+        <v>1018.5</v>
+      </c>
+      <c r="L609" t="n">
+        <v>1018.5</v>
+      </c>
+      <c r="M609" t="n">
+        <v>1018.5</v>
+      </c>
+      <c r="N609" t="n">
+        <v>1018.5</v>
+      </c>
+      <c r="O609" t="n">
+        <v>2</v>
+      </c>
+      <c r="P609" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q609" t="n">
+        <v>0</v>
+      </c>
+      <c r="R609" t="n">
+        <v>4.684000015258789</v>
+      </c>
+      <c r="S609" t="n">
+        <v>4.684000015258789</v>
+      </c>
+      <c r="T609" t="n">
+        <v>4.663000106811523</v>
+      </c>
+      <c r="U609" t="n">
+        <v>4.677000045776367</v>
+      </c>
+      <c r="V609" t="n">
+        <v>4.677000045776367</v>
+      </c>
+      <c r="W609" t="n">
+        <v>488</v>
+      </c>
+      <c r="X609" t="n">
+        <v>0.004503518757503308</v>
+      </c>
+      <c r="Y609" t="n">
+        <v>-0.001494442668577816</v>
+      </c>
+      <c r="Z609" t="n">
+        <v>76.97000122070312</v>
+      </c>
+      <c r="AA609" t="n">
+        <v>77.51999664306641</v>
+      </c>
+      <c r="AB609" t="n">
+        <v>73.98000335693359</v>
+      </c>
+      <c r="AC609" t="n">
+        <v>74.22000122070312</v>
+      </c>
+      <c r="AD609" t="n">
+        <v>74.22000122070312</v>
+      </c>
+      <c r="AE609" t="n">
+        <v>443271</v>
+      </c>
+      <c r="AF609" t="n">
+        <v>0.04785067755476163</v>
+      </c>
+      <c r="AG609" t="n">
+        <v>-0.03572820522783511</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="2" t="n">
+        <v>45447</v>
+      </c>
+      <c r="B610" t="n">
+        <v>2347.5</v>
+      </c>
+      <c r="C610" t="n">
+        <v>2347.699951171875</v>
+      </c>
+      <c r="D610" t="n">
+        <v>2313.89990234375</v>
+      </c>
+      <c r="E610" t="n">
+        <v>2325.5</v>
+      </c>
+      <c r="F610" t="n">
+        <v>2325.5</v>
+      </c>
+      <c r="G610" t="n">
+        <v>890</v>
+      </c>
+      <c r="H610" t="n">
+        <v>0.01460739455232654</v>
+      </c>
+      <c r="I610" t="n">
+        <v>-0.009371671991480299</v>
+      </c>
+      <c r="J610" t="n">
+        <v>991.5999755859375</v>
+      </c>
+      <c r="K610" t="n">
+        <v>991.5999755859375</v>
+      </c>
+      <c r="L610" t="n">
+        <v>991.5999755859375</v>
+      </c>
+      <c r="M610" t="n">
+        <v>991.5999755859375</v>
+      </c>
+      <c r="N610" t="n">
+        <v>991.5999755859375</v>
+      </c>
+      <c r="O610" t="n">
+        <v>2</v>
+      </c>
+      <c r="P610" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q610" t="n">
+        <v>0</v>
+      </c>
+      <c r="R610" t="n">
+        <v>4.685999870300293</v>
+      </c>
+      <c r="S610" t="n">
+        <v>4.685999870300293</v>
+      </c>
+      <c r="T610" t="n">
+        <v>4.54449987411499</v>
+      </c>
+      <c r="U610" t="n">
+        <v>4.547999858856201</v>
+      </c>
+      <c r="V610" t="n">
+        <v>4.547999858856201</v>
+      </c>
+      <c r="W610" t="n">
+        <v>593</v>
+      </c>
+      <c r="X610" t="n">
+        <v>0.03113653869620997</v>
+      </c>
+      <c r="Y610" t="n">
+        <v>-0.02944942707291376</v>
+      </c>
+      <c r="Z610" t="n">
+        <v>74.01999664306641</v>
+      </c>
+      <c r="AA610" t="n">
+        <v>74.12999725341797</v>
+      </c>
+      <c r="AB610" t="n">
+        <v>72.48000335693359</v>
+      </c>
+      <c r="AC610" t="n">
+        <v>73.25</v>
+      </c>
+      <c r="AD610" t="n">
+        <v>73.25</v>
+      </c>
+      <c r="AE610" t="n">
+        <v>408721</v>
+      </c>
+      <c r="AF610" t="n">
+        <v>0.02276481539823954</v>
+      </c>
+      <c r="AG610" t="n">
+        <v>-0.01040254901360541</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2" t="n">
+        <v>45448</v>
+      </c>
+      <c r="B611" t="n">
+        <v>2326.39990234375</v>
+      </c>
+      <c r="C611" t="n">
+        <v>2354.300048828125</v>
+      </c>
+      <c r="D611" t="n">
+        <v>2326.199951171875</v>
+      </c>
+      <c r="E611" t="n">
+        <v>2354.10009765625</v>
+      </c>
+      <c r="F611" t="n">
+        <v>2354.10009765625</v>
+      </c>
+      <c r="G611" t="n">
+        <v>295</v>
+      </c>
+      <c r="H611" t="n">
+        <v>0.01207982901129972</v>
+      </c>
+      <c r="I611" t="n">
+        <v>0.0119068932579447</v>
+      </c>
+      <c r="J611" t="n">
+        <v>996</v>
+      </c>
+      <c r="K611" t="n">
+        <v>996</v>
+      </c>
+      <c r="L611" t="n">
+        <v>996</v>
+      </c>
+      <c r="M611" t="n">
+        <v>996</v>
+      </c>
+      <c r="N611" t="n">
+        <v>996</v>
+      </c>
+      <c r="O611" t="n">
+        <v>2</v>
+      </c>
+      <c r="P611" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q611" t="n">
+        <v>0</v>
+      </c>
+      <c r="R611" t="n">
+        <v>4.538000106811523</v>
+      </c>
+      <c r="S611" t="n">
+        <v>4.622499942779541</v>
+      </c>
+      <c r="T611" t="n">
+        <v>4.538000106811523</v>
+      </c>
+      <c r="U611" t="n">
+        <v>4.619500160217285</v>
+      </c>
+      <c r="V611" t="n">
+        <v>4.619500160217285</v>
+      </c>
+      <c r="W611" t="n">
+        <v>436</v>
+      </c>
+      <c r="X611" t="n">
+        <v>0.01862050109720879</v>
+      </c>
+      <c r="Y611" t="n">
+        <v>0.01795946484959981</v>
+      </c>
+      <c r="Z611" t="n">
+        <v>72.90000152587891</v>
+      </c>
+      <c r="AA611" t="n">
+        <v>74.33000183105469</v>
+      </c>
+      <c r="AB611" t="n">
+        <v>72.81999969482422</v>
+      </c>
+      <c r="AC611" t="n">
+        <v>74.06999969482422</v>
+      </c>
+      <c r="AD611" t="n">
+        <v>74.06999969482422</v>
+      </c>
+      <c r="AE611" t="n">
+        <v>307701</v>
+      </c>
+      <c r="AF611" t="n">
+        <v>0.02073609094422716</v>
+      </c>
+      <c r="AG611" t="n">
+        <v>0.01604935726277005</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="2" t="n">
+        <v>45449</v>
+      </c>
+      <c r="B612" t="n">
+        <v>2355</v>
+      </c>
+      <c r="C612" t="n">
+        <v>2375.800048828125</v>
+      </c>
+      <c r="D612" t="n">
+        <v>2355</v>
+      </c>
+      <c r="E612" t="n">
+        <v>2370.300048828125</v>
+      </c>
+      <c r="F612" t="n">
+        <v>2370.300048828125</v>
+      </c>
+      <c r="G612" t="n">
+        <v>179</v>
+      </c>
+      <c r="H612" t="n">
+        <v>0.008832292496019108</v>
+      </c>
+      <c r="I612" t="n">
+        <v>0.006496836020435244</v>
+      </c>
+      <c r="J612" t="n">
+        <v>1008.299987792969</v>
+      </c>
+      <c r="K612" t="n">
+        <v>1008.299987792969</v>
+      </c>
+      <c r="L612" t="n">
+        <v>1008.299987792969</v>
+      </c>
+      <c r="M612" t="n">
+        <v>1008.299987792969</v>
+      </c>
+      <c r="N612" t="n">
+        <v>1008.299987792969</v>
+      </c>
+      <c r="O612" t="n">
+        <v>2</v>
+      </c>
+      <c r="P612" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q612" t="n">
+        <v>0</v>
+      </c>
+      <c r="R612" t="n">
+        <v>4.661499977111816</v>
+      </c>
+      <c r="S612" t="n">
+        <v>4.690999984741211</v>
+      </c>
+      <c r="T612" t="n">
+        <v>4.650000095367432</v>
+      </c>
+      <c r="U612" t="n">
+        <v>4.690999984741211</v>
+      </c>
+      <c r="V612" t="n">
+        <v>4.690999984741211</v>
+      </c>
+      <c r="W612" t="n">
+        <v>376</v>
+      </c>
+      <c r="X612" t="n">
+        <v>0.008817180329657517</v>
+      </c>
+      <c r="Y612" t="n">
+        <v>0.006328436720849717</v>
+      </c>
+      <c r="Z612" t="n">
+        <v>74.30000305175781</v>
+      </c>
+      <c r="AA612" t="n">
+        <v>75.79000091552734</v>
+      </c>
+      <c r="AB612" t="n">
+        <v>74.05999755859375</v>
+      </c>
+      <c r="AC612" t="n">
+        <v>75.55000305175781</v>
+      </c>
+      <c r="AD612" t="n">
+        <v>75.55000305175781</v>
+      </c>
+      <c r="AE612" t="n">
+        <v>291082</v>
+      </c>
+      <c r="AF612" t="n">
+        <v>0.0233594843905426</v>
+      </c>
+      <c r="AG612" t="n">
+        <v>0.01682368706134834</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="2" t="n">
+        <v>45450</v>
+      </c>
+      <c r="B613" t="n">
+        <v>2379.89990234375</v>
+      </c>
+      <c r="C613" t="n">
+        <v>2385.10009765625</v>
+      </c>
+      <c r="D613" t="n">
+        <v>2285.39990234375</v>
+      </c>
+      <c r="E613" t="n">
+        <v>2305.199951171875</v>
+      </c>
+      <c r="F613" t="n">
+        <v>2305.199951171875</v>
+      </c>
+      <c r="G613" t="n">
+        <v>269</v>
+      </c>
+      <c r="H613" t="n">
+        <v>0.04362483572798542</v>
+      </c>
+      <c r="I613" t="n">
+        <v>-0.03138785421114128</v>
+      </c>
+      <c r="J613" t="n">
+        <v>967.7999877929688</v>
+      </c>
+      <c r="K613" t="n">
+        <v>967.7999877929688</v>
+      </c>
+      <c r="L613" t="n">
+        <v>967.7999877929688</v>
+      </c>
+      <c r="M613" t="n">
+        <v>967.7999877929688</v>
+      </c>
+      <c r="N613" t="n">
+        <v>967.7999877929688</v>
+      </c>
+      <c r="O613" t="n">
+        <v>25</v>
+      </c>
+      <c r="P613" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q613" t="n">
+        <v>0</v>
+      </c>
+      <c r="R613" t="n">
+        <v>4.559999942779541</v>
+      </c>
+      <c r="S613" t="n">
+        <v>4.559999942779541</v>
+      </c>
+      <c r="T613" t="n">
+        <v>4.479499816894531</v>
+      </c>
+      <c r="U613" t="n">
+        <v>4.494500160217285</v>
+      </c>
+      <c r="V613" t="n">
+        <v>4.494500160217285</v>
+      </c>
+      <c r="W613" t="n">
+        <v>398</v>
+      </c>
+      <c r="X613" t="n">
+        <v>0.01797078450174321</v>
+      </c>
+      <c r="Y613" t="n">
+        <v>-0.01436398758424777</v>
+      </c>
+      <c r="Z613" t="n">
+        <v>75.66999816894531</v>
+      </c>
+      <c r="AA613" t="n">
+        <v>76.25</v>
+      </c>
+      <c r="AB613" t="n">
+        <v>75.20999908447266</v>
+      </c>
+      <c r="AC613" t="n">
+        <v>75.52999877929688</v>
+      </c>
+      <c r="AD613" t="n">
+        <v>75.52999877929688</v>
+      </c>
+      <c r="AE613" t="n">
+        <v>280253</v>
+      </c>
+      <c r="AF613" t="n">
+        <v>0.01382796075238957</v>
+      </c>
+      <c r="AG613" t="n">
+        <v>-0.001850130739211419</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B614" t="n">
+        <v>2290.60009765625</v>
+      </c>
+      <c r="C614" t="n">
+        <v>2309.300048828125</v>
+      </c>
+      <c r="D614" t="n">
+        <v>2290.5</v>
+      </c>
+      <c r="E614" t="n">
+        <v>2307.699951171875</v>
+      </c>
+      <c r="F614" t="n">
+        <v>2307.699951171875</v>
+      </c>
+      <c r="G614" t="n">
+        <v>269</v>
+      </c>
+      <c r="H614" t="n">
+        <v>0.008207836205249945</v>
+      </c>
+      <c r="I614" t="n">
+        <v>0.007465228667859409</v>
+      </c>
+      <c r="J614" t="n">
+        <v>972.5</v>
+      </c>
+      <c r="K614" t="n">
+        <v>972.5</v>
+      </c>
+      <c r="L614" t="n">
+        <v>972.5</v>
+      </c>
+      <c r="M614" t="n">
+        <v>972.5</v>
+      </c>
+      <c r="N614" t="n">
+        <v>972.5</v>
+      </c>
+      <c r="O614" t="n">
+        <v>25</v>
+      </c>
+      <c r="P614" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q614" t="n">
+        <v>0</v>
+      </c>
+      <c r="R614" t="n">
+        <v>4.474999904632568</v>
+      </c>
+      <c r="S614" t="n">
+        <v>4.568999767303467</v>
+      </c>
+      <c r="T614" t="n">
+        <v>4.474999904632568</v>
+      </c>
+      <c r="U614" t="n">
+        <v>4.55649995803833</v>
+      </c>
+      <c r="V614" t="n">
+        <v>4.55649995803833</v>
+      </c>
+      <c r="W614" t="n">
+        <v>398</v>
+      </c>
+      <c r="X614" t="n">
+        <v>0.02100555635176411</v>
+      </c>
+      <c r="Y614" t="n">
+        <v>0.01821230282516699</v>
+      </c>
+      <c r="Z614" t="n">
+        <v>75.34999847412109</v>
+      </c>
+      <c r="AA614" t="n">
+        <v>78.29000091552734</v>
+      </c>
+      <c r="AB614" t="n">
+        <v>75.23000335693359</v>
+      </c>
+      <c r="AC614" t="n">
+        <v>77.73999786376953</v>
+      </c>
+      <c r="AD614" t="n">
+        <v>77.73999786376953</v>
+      </c>
+      <c r="AE614" t="n">
+        <v>280253</v>
+      </c>
+      <c r="AF614" t="n">
+        <v>0.04067522826066343</v>
+      </c>
+      <c r="AG614" t="n">
+        <v>0.03171863885928652</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="2" t="n">
+        <v>45456</v>
+      </c>
+      <c r="B615" t="n">
+        <v>2340.89990234375</v>
+      </c>
+      <c r="C615" t="n">
+        <v>2341.300048828125</v>
+      </c>
+      <c r="D615" t="n">
+        <v>2323.800048828125</v>
+      </c>
+      <c r="E615" t="n">
+        <v>2328.199951171875</v>
+      </c>
+      <c r="F615" t="n">
+        <v>2328.199951171875</v>
+      </c>
+      <c r="G615" t="n">
+        <v>22187</v>
+      </c>
+      <c r="H615" t="n">
+        <v>0.007530768410485712</v>
+      </c>
+      <c r="I615" t="n">
+        <v>-0.005425243155061686</v>
+      </c>
+      <c r="J615" t="n">
+        <v>964.5</v>
+      </c>
+      <c r="K615" t="n">
+        <v>965.5</v>
+      </c>
+      <c r="L615" t="n">
+        <v>951</v>
+      </c>
+      <c r="M615" t="n">
+        <v>951.2000122070312</v>
+      </c>
+      <c r="N615" t="n">
+        <v>951.2000122070312</v>
+      </c>
+      <c r="O615" t="n">
+        <v>3289</v>
+      </c>
+      <c r="P615" t="n">
+        <v>0.01524710830704522</v>
+      </c>
+      <c r="Q615" t="n">
+        <v>-0.01378951559664982</v>
+      </c>
+      <c r="R615" t="n">
+        <v>4.533500194549561</v>
+      </c>
+      <c r="S615" t="n">
+        <v>4.539999961853027</v>
+      </c>
+      <c r="T615" t="n">
+        <v>4.490499973297119</v>
+      </c>
+      <c r="U615" t="n">
+        <v>4.506499767303467</v>
+      </c>
+      <c r="V615" t="n">
+        <v>4.506499767303467</v>
+      </c>
+      <c r="W615" t="n">
+        <v>7811</v>
+      </c>
+      <c r="X615" t="n">
+        <v>0.01102326886766757</v>
+      </c>
+      <c r="Y615" t="n">
+        <v>-0.00595575738114123</v>
+      </c>
+      <c r="Z615" t="n">
+        <v>78.37000274658203</v>
+      </c>
+      <c r="AA615" t="n">
+        <v>78.40000152587891</v>
+      </c>
+      <c r="AB615" t="n">
+        <v>78.06999969482422</v>
+      </c>
+      <c r="AC615" t="n">
+        <v>78.30000305175781</v>
+      </c>
+      <c r="AD615" t="n">
+        <v>78.30000305175781</v>
+      </c>
+      <c r="AE615" t="n">
+        <v>9183</v>
+      </c>
+      <c r="AF615" t="n">
+        <v>0.004226999261491806</v>
+      </c>
+      <c r="AG615" t="n">
+        <v>-0.0008931950028197704</v>
       </c>
     </row>
   </sheetData>

--- a/investing/sp500_dfs/commodities_ohlc.xlsx
+++ b/investing/sp500_dfs/commodities_ohlc.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG615"/>
+  <dimension ref="A1:AG634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62422,7 +62422,7 @@
         <v>2307.699951171875</v>
       </c>
       <c r="G614" t="n">
-        <v>269</v>
+        <v>69</v>
       </c>
       <c r="H614" t="n">
         <v>0.008207836205249945</v>
@@ -62470,7 +62470,7 @@
         <v>4.55649995803833</v>
       </c>
       <c r="W614" t="n">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="X614" t="n">
         <v>0.02100555635176411</v>
@@ -62494,7 +62494,7 @@
         <v>77.73999786376953</v>
       </c>
       <c r="AE614" t="n">
-        <v>280253</v>
+        <v>317031</v>
       </c>
       <c r="AF614" t="n">
         <v>0.04067522826066343</v>
@@ -62505,103 +62505,2022 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
+        <v>45454</v>
+      </c>
+      <c r="B615" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C615" t="n">
+        <v>2314.10009765625</v>
+      </c>
+      <c r="D615" t="n">
+        <v>2300</v>
+      </c>
+      <c r="E615" t="n">
+        <v>2307.5</v>
+      </c>
+      <c r="F615" t="n">
+        <v>2307.5</v>
+      </c>
+      <c r="G615" t="n">
+        <v>871</v>
+      </c>
+      <c r="H615" t="n">
+        <v>0.006130477241847826</v>
+      </c>
+      <c r="I615" t="n">
+        <v>0.003260869565217391</v>
+      </c>
+      <c r="J615" t="n">
+        <v>955.5999755859375</v>
+      </c>
+      <c r="K615" t="n">
+        <v>955.5999755859375</v>
+      </c>
+      <c r="L615" t="n">
+        <v>955.5999755859375</v>
+      </c>
+      <c r="M615" t="n">
+        <v>955.5999755859375</v>
+      </c>
+      <c r="N615" t="n">
+        <v>955.5999755859375</v>
+      </c>
+      <c r="O615" t="n">
+        <v>25</v>
+      </c>
+      <c r="P615" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q615" t="n">
+        <v>0</v>
+      </c>
+      <c r="R615" t="n">
+        <v>4.465499877929688</v>
+      </c>
+      <c r="S615" t="n">
+        <v>4.52299976348877</v>
+      </c>
+      <c r="T615" t="n">
+        <v>4.465499877929688</v>
+      </c>
+      <c r="U615" t="n">
+        <v>4.52299976348877</v>
+      </c>
+      <c r="V615" t="n">
+        <v>4.52299976348877</v>
+      </c>
+      <c r="W615" t="n">
+        <v>388</v>
+      </c>
+      <c r="X615" t="n">
+        <v>0.01287647231685523</v>
+      </c>
+      <c r="Y615" t="n">
+        <v>0.01287647231685523</v>
+      </c>
+      <c r="Z615" t="n">
+        <v>78.12000274658203</v>
+      </c>
+      <c r="AA615" t="n">
+        <v>78.36000061035156</v>
+      </c>
+      <c r="AB615" t="n">
+        <v>77.22000122070312</v>
+      </c>
+      <c r="AC615" t="n">
+        <v>77.90000152587891</v>
+      </c>
+      <c r="AD615" t="n">
+        <v>77.90000152587891</v>
+      </c>
+      <c r="AE615" t="n">
+        <v>314874</v>
+      </c>
+      <c r="AF615" t="n">
+        <v>0.01476300662557872</v>
+      </c>
+      <c r="AG615" t="n">
+        <v>-0.002816195762521919</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="B616" t="n">
+        <v>2314.89990234375</v>
+      </c>
+      <c r="C616" t="n">
+        <v>2338.699951171875</v>
+      </c>
+      <c r="D616" t="n">
+        <v>2310.300048828125</v>
+      </c>
+      <c r="E616" t="n">
+        <v>2336</v>
+      </c>
+      <c r="F616" t="n">
+        <v>2336</v>
+      </c>
+      <c r="G616" t="n">
+        <v>132</v>
+      </c>
+      <c r="H616" t="n">
+        <v>0.01229273330022892</v>
+      </c>
+      <c r="I616" t="n">
+        <v>0.009114907143452266</v>
+      </c>
+      <c r="J616" t="n">
+        <v>968.2000122070312</v>
+      </c>
+      <c r="K616" t="n">
+        <v>968.2000122070312</v>
+      </c>
+      <c r="L616" t="n">
+        <v>968.2000122070312</v>
+      </c>
+      <c r="M616" t="n">
+        <v>968.2000122070312</v>
+      </c>
+      <c r="N616" t="n">
+        <v>968.2000122070312</v>
+      </c>
+      <c r="O616" t="n">
+        <v>25</v>
+      </c>
+      <c r="P616" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q616" t="n">
+        <v>0</v>
+      </c>
+      <c r="R616" t="n">
+        <v>4.526500225067139</v>
+      </c>
+      <c r="S616" t="n">
+        <v>4.587500095367432</v>
+      </c>
+      <c r="T616" t="n">
+        <v>4.523499965667725</v>
+      </c>
+      <c r="U616" t="n">
+        <v>4.581500053405762</v>
+      </c>
+      <c r="V616" t="n">
+        <v>4.581500053405762</v>
+      </c>
+      <c r="W616" t="n">
+        <v>384</v>
+      </c>
+      <c r="X616" t="n">
+        <v>0.0141483652449326</v>
+      </c>
+      <c r="Y616" t="n">
+        <v>0.01215062975895627</v>
+      </c>
+      <c r="Z616" t="n">
+        <v>78.22000122070312</v>
+      </c>
+      <c r="AA616" t="n">
+        <v>79.31999969482422</v>
+      </c>
+      <c r="AB616" t="n">
+        <v>77.87999725341797</v>
+      </c>
+      <c r="AC616" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="AD616" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="AE616" t="n">
+        <v>322285</v>
+      </c>
+      <c r="AF616" t="n">
+        <v>0.01849001659207239</v>
+      </c>
+      <c r="AG616" t="n">
+        <v>0.003579631487179847</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="2" t="n">
         <v>45456</v>
       </c>
-      <c r="B615" t="n">
-        <v>2340.89990234375</v>
-      </c>
-      <c r="C615" t="n">
-        <v>2341.300048828125</v>
-      </c>
-      <c r="D615" t="n">
+      <c r="B617" t="n">
+        <v>2309.39990234375</v>
+      </c>
+      <c r="C617" t="n">
+        <v>2317.699951171875</v>
+      </c>
+      <c r="D617" t="n">
+        <v>2296.199951171875</v>
+      </c>
+      <c r="E617" t="n">
+        <v>2300.199951171875</v>
+      </c>
+      <c r="F617" t="n">
+        <v>2300.199951171875</v>
+      </c>
+      <c r="G617" t="n">
+        <v>298</v>
+      </c>
+      <c r="H617" t="n">
+        <v>0.009363296079257987</v>
+      </c>
+      <c r="I617" t="n">
+        <v>-0.00398369774006581</v>
+      </c>
+      <c r="J617" t="n">
+        <v>951.2999877929688</v>
+      </c>
+      <c r="K617" t="n">
+        <v>951.2999877929688</v>
+      </c>
+      <c r="L617" t="n">
+        <v>951.2999877929688</v>
+      </c>
+      <c r="M617" t="n">
+        <v>951.2999877929688</v>
+      </c>
+      <c r="N617" t="n">
+        <v>951.2999877929688</v>
+      </c>
+      <c r="O617" t="n">
+        <v>25</v>
+      </c>
+      <c r="P617" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q617" t="n">
+        <v>0</v>
+      </c>
+      <c r="R617" t="n">
+        <v>4.507500171661377</v>
+      </c>
+      <c r="S617" t="n">
+        <v>4.507500171661377</v>
+      </c>
+      <c r="T617" t="n">
+        <v>4.507500171661377</v>
+      </c>
+      <c r="U617" t="n">
+        <v>4.507500171661377</v>
+      </c>
+      <c r="V617" t="n">
+        <v>4.507500171661377</v>
+      </c>
+      <c r="W617" t="n">
+        <v>532</v>
+      </c>
+      <c r="X617" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y617" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z617" t="n">
+        <v>78.37000274658203</v>
+      </c>
+      <c r="AA617" t="n">
+        <v>78.88999938964844</v>
+      </c>
+      <c r="AB617" t="n">
+        <v>77.66999816894531</v>
+      </c>
+      <c r="AC617" t="n">
+        <v>78.62000274658203</v>
+      </c>
+      <c r="AD617" t="n">
+        <v>78.62000274658203</v>
+      </c>
+      <c r="AE617" t="n">
+        <v>307638</v>
+      </c>
+      <c r="AF617" t="n">
+        <v>0.01570749645248371</v>
+      </c>
+      <c r="AG617" t="n">
+        <v>0.003189996060206892</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="2" t="n">
+        <v>45457</v>
+      </c>
+      <c r="B618" t="n">
+        <v>2307</v>
+      </c>
+      <c r="C618" t="n">
+        <v>2331.39990234375</v>
+      </c>
+      <c r="D618" t="n">
+        <v>2305.800048828125</v>
+      </c>
+      <c r="E618" t="n">
+        <v>2331.39990234375</v>
+      </c>
+      <c r="F618" t="n">
+        <v>2331.39990234375</v>
+      </c>
+      <c r="G618" t="n">
+        <v>948</v>
+      </c>
+      <c r="H618" t="n">
+        <v>0.01110237356818324</v>
+      </c>
+      <c r="I618" t="n">
+        <v>0.01057646395481144</v>
+      </c>
+      <c r="J618" t="n">
+        <v>955.2999877929688</v>
+      </c>
+      <c r="K618" t="n">
+        <v>955.2999877929688</v>
+      </c>
+      <c r="L618" t="n">
+        <v>955.2999877929688</v>
+      </c>
+      <c r="M618" t="n">
+        <v>955.2999877929688</v>
+      </c>
+      <c r="N618" t="n">
+        <v>955.2999877929688</v>
+      </c>
+      <c r="O618" t="n">
+        <v>25</v>
+      </c>
+      <c r="P618" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q618" t="n">
+        <v>0</v>
+      </c>
+      <c r="R618" t="n">
+        <v>4.516499996185303</v>
+      </c>
+      <c r="S618" t="n">
+        <v>4.551000118255615</v>
+      </c>
+      <c r="T618" t="n">
+        <v>4.508999824523926</v>
+      </c>
+      <c r="U618" t="n">
+        <v>4.551000118255615</v>
+      </c>
+      <c r="V618" t="n">
+        <v>4.551000118255615</v>
+      </c>
+      <c r="W618" t="n">
+        <v>577</v>
+      </c>
+      <c r="X618" t="n">
+        <v>0.009314769431405771</v>
+      </c>
+      <c r="Y618" t="n">
+        <v>0.00763868528715859</v>
+      </c>
+      <c r="Z618" t="n">
+        <v>77.95999908447266</v>
+      </c>
+      <c r="AA618" t="n">
+        <v>79.15000152587891</v>
+      </c>
+      <c r="AB618" t="n">
+        <v>77.73000335693359</v>
+      </c>
+      <c r="AC618" t="n">
+        <v>78.44999694824219</v>
+      </c>
+      <c r="AD618" t="n">
+        <v>78.44999694824219</v>
+      </c>
+      <c r="AE618" t="n">
+        <v>245827</v>
+      </c>
+      <c r="AF618" t="n">
+        <v>0.01826834050713632</v>
+      </c>
+      <c r="AG618" t="n">
+        <v>0.006285247171932361</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B619" t="n">
+        <v>2320.199951171875</v>
+      </c>
+      <c r="C619" t="n">
+        <v>2320.199951171875</v>
+      </c>
+      <c r="D619" t="n">
+        <v>2309.60009765625</v>
+      </c>
+      <c r="E619" t="n">
+        <v>2312.39990234375</v>
+      </c>
+      <c r="F619" t="n">
+        <v>2312.39990234375</v>
+      </c>
+      <c r="G619" t="n">
+        <v>110</v>
+      </c>
+      <c r="H619" t="n">
+        <v>0.004589475695979396</v>
+      </c>
+      <c r="I619" t="n">
+        <v>-0.00336180027250901</v>
+      </c>
+      <c r="J619" t="n">
+        <v>963.2000122070312</v>
+      </c>
+      <c r="K619" t="n">
+        <v>967.7999877929688</v>
+      </c>
+      <c r="L619" t="n">
+        <v>961.2000122070312</v>
+      </c>
+      <c r="M619" t="n">
+        <v>967.7999877929688</v>
+      </c>
+      <c r="N619" t="n">
+        <v>967.7999877929688</v>
+      </c>
+      <c r="O619" t="n">
+        <v>8</v>
+      </c>
+      <c r="P619" t="n">
+        <v>0.006866391492009201</v>
+      </c>
+      <c r="Q619" t="n">
+        <v>0.004775722100955265</v>
+      </c>
+      <c r="R619" t="n">
+        <v>4.471000194549561</v>
+      </c>
+      <c r="S619" t="n">
+        <v>4.526000022888184</v>
+      </c>
+      <c r="T619" t="n">
+        <v>4.471000194549561</v>
+      </c>
+      <c r="U619" t="n">
+        <v>4.521500110626221</v>
+      </c>
+      <c r="V619" t="n">
+        <v>4.521500110626221</v>
+      </c>
+      <c r="W619" t="n">
+        <v>512</v>
+      </c>
+      <c r="X619" t="n">
+        <v>0.01230145961650179</v>
+      </c>
+      <c r="Y619" t="n">
+        <v>0.01129499303941495</v>
+      </c>
+      <c r="Z619" t="n">
+        <v>78.48000335693359</v>
+      </c>
+      <c r="AA619" t="n">
+        <v>80.66000366210938</v>
+      </c>
+      <c r="AB619" t="n">
+        <v>77.98000335693359</v>
+      </c>
+      <c r="AC619" t="n">
+        <v>80.33000183105469</v>
+      </c>
+      <c r="AD619" t="n">
+        <v>80.33000183105469</v>
+      </c>
+      <c r="AE619" t="n">
+        <v>126733</v>
+      </c>
+      <c r="AF619" t="n">
+        <v>0.0343677890459784</v>
+      </c>
+      <c r="AG619" t="n">
+        <v>0.02357286436020073</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B620" t="n">
+        <v>2311.800048828125</v>
+      </c>
+      <c r="C620" t="n">
+        <v>2330.39990234375</v>
+      </c>
+      <c r="D620" t="n">
+        <v>2311.800048828125</v>
+      </c>
+      <c r="E620" t="n">
+        <v>2330.39990234375</v>
+      </c>
+      <c r="F620" t="n">
+        <v>2330.39990234375</v>
+      </c>
+      <c r="G620" t="n">
+        <v>43</v>
+      </c>
+      <c r="H620" t="n">
+        <v>0.00804561515821987</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0.00804561515821987</v>
+      </c>
+      <c r="J620" t="n">
+        <v>974.0999755859375</v>
+      </c>
+      <c r="K620" t="n">
+        <v>974.0999755859375</v>
+      </c>
+      <c r="L620" t="n">
+        <v>974.0999755859375</v>
+      </c>
+      <c r="M620" t="n">
+        <v>974.0999755859375</v>
+      </c>
+      <c r="N620" t="n">
+        <v>974.0999755859375</v>
+      </c>
+      <c r="O620" t="n">
+        <v>8</v>
+      </c>
+      <c r="P620" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q620" t="n">
+        <v>0</v>
+      </c>
+      <c r="R620" t="n">
+        <v>4.449999809265137</v>
+      </c>
+      <c r="S620" t="n">
+        <v>4.561999797821045</v>
+      </c>
+      <c r="T620" t="n">
+        <v>4.449999809265137</v>
+      </c>
+      <c r="U620" t="n">
+        <v>4.561999797821045</v>
+      </c>
+      <c r="V620" t="n">
+        <v>4.561999797821045</v>
+      </c>
+      <c r="W620" t="n">
+        <v>454</v>
+      </c>
+      <c r="X620" t="n">
+        <v>0.02516853783290468</v>
+      </c>
+      <c r="Y620" t="n">
+        <v>0.02516853783290468</v>
+      </c>
+      <c r="Z620" t="n">
+        <v>80.43000030517578</v>
+      </c>
+      <c r="AA620" t="n">
+        <v>81.66999816894531</v>
+      </c>
+      <c r="AB620" t="n">
+        <v>79.76999664306641</v>
+      </c>
+      <c r="AC620" t="n">
+        <v>81.56999969482422</v>
+      </c>
+      <c r="AD620" t="n">
+        <v>81.56999969482422</v>
+      </c>
+      <c r="AE620" t="n">
+        <v>140709</v>
+      </c>
+      <c r="AF620" t="n">
+        <v>0.02381849825543466</v>
+      </c>
+      <c r="AG620" t="n">
+        <v>0.01417380809800988</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B621" t="n">
+        <v>2328.89990234375</v>
+      </c>
+      <c r="C621" t="n">
+        <v>2354</v>
+      </c>
+      <c r="D621" t="n">
+        <v>2328.300048828125</v>
+      </c>
+      <c r="E621" t="n">
+        <v>2353.800048828125</v>
+      </c>
+      <c r="F621" t="n">
+        <v>2353.800048828125</v>
+      </c>
+      <c r="G621" t="n">
+        <v>183</v>
+      </c>
+      <c r="H621" t="n">
+        <v>0.01103807526216831</v>
+      </c>
+      <c r="I621" t="n">
+        <v>0.01069180622976371</v>
+      </c>
+      <c r="J621" t="n">
+        <v>981.5999755859375</v>
+      </c>
+      <c r="K621" t="n">
+        <v>981.5999755859375</v>
+      </c>
+      <c r="L621" t="n">
+        <v>981.5999755859375</v>
+      </c>
+      <c r="M621" t="n">
+        <v>981.5999755859375</v>
+      </c>
+      <c r="N621" t="n">
+        <v>981.5999755859375</v>
+      </c>
+      <c r="O621" t="n">
+        <v>8</v>
+      </c>
+      <c r="P621" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q621" t="n">
+        <v>0</v>
+      </c>
+      <c r="R621" t="n">
+        <v>4.605000019073486</v>
+      </c>
+      <c r="S621" t="n">
+        <v>4.618000030517578</v>
+      </c>
+      <c r="T621" t="n">
+        <v>4.592000007629395</v>
+      </c>
+      <c r="U621" t="n">
+        <v>4.618000030517578</v>
+      </c>
+      <c r="V621" t="n">
+        <v>4.618000030517578</v>
+      </c>
+      <c r="W621" t="n">
+        <v>445</v>
+      </c>
+      <c r="X621" t="n">
+        <v>0.005662025880876691</v>
+      </c>
+      <c r="Y621" t="n">
+        <v>0.002823020931649717</v>
+      </c>
+      <c r="Z621" t="n">
+        <v>81.51999664306641</v>
+      </c>
+      <c r="AA621" t="n">
+        <v>82.41000366210938</v>
+      </c>
+      <c r="AB621" t="n">
+        <v>81.12999725341797</v>
+      </c>
+      <c r="AC621" t="n">
+        <v>82.16999816894531</v>
+      </c>
+      <c r="AD621" t="n">
+        <v>82.16999816894531</v>
+      </c>
+      <c r="AE621" t="n">
+        <v>420499</v>
+      </c>
+      <c r="AF621" t="n">
+        <v>0.01577722731449347</v>
+      </c>
+      <c r="AG621" t="n">
+        <v>0.007973522480930959</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B622" t="n">
+        <v>2331.199951171875</v>
+      </c>
+      <c r="C622" t="n">
+        <v>2331.199951171875</v>
+      </c>
+      <c r="D622" t="n">
+        <v>2316.39990234375</v>
+      </c>
+      <c r="E622" t="n">
+        <v>2316.39990234375</v>
+      </c>
+      <c r="F622" t="n">
+        <v>2316.39990234375</v>
+      </c>
+      <c r="G622" t="n">
+        <v>76</v>
+      </c>
+      <c r="H622" t="n">
+        <v>0.006389246007630291</v>
+      </c>
+      <c r="I622" t="n">
+        <v>-0.006348682711959194</v>
+      </c>
+      <c r="J622" t="n">
+        <v>993.7000122070312</v>
+      </c>
+      <c r="K622" t="n">
+        <v>993.7000122070312</v>
+      </c>
+      <c r="L622" t="n">
+        <v>993.7000122070312</v>
+      </c>
+      <c r="M622" t="n">
+        <v>993.7000122070312</v>
+      </c>
+      <c r="N622" t="n">
+        <v>993.7000122070312</v>
+      </c>
+      <c r="O622" t="n">
+        <v>8</v>
+      </c>
+      <c r="P622" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q622" t="n">
+        <v>0</v>
+      </c>
+      <c r="R622" t="n">
+        <v>4.597499847412109</v>
+      </c>
+      <c r="S622" t="n">
+        <v>4.597499847412109</v>
+      </c>
+      <c r="T622" t="n">
+        <v>4.479000091552734</v>
+      </c>
+      <c r="U622" t="n">
+        <v>4.49399995803833</v>
+      </c>
+      <c r="V622" t="n">
+        <v>4.49399995803833</v>
+      </c>
+      <c r="W622" t="n">
+        <v>687</v>
+      </c>
+      <c r="X622" t="n">
+        <v>0.02645674334386868</v>
+      </c>
+      <c r="Y622" t="n">
+        <v>-0.02251221159518655</v>
+      </c>
+      <c r="Z622" t="n">
+        <v>81.26999664306641</v>
+      </c>
+      <c r="AA622" t="n">
+        <v>81.79000091552734</v>
+      </c>
+      <c r="AB622" t="n">
+        <v>80.34999847412109</v>
+      </c>
+      <c r="AC622" t="n">
+        <v>80.73000335693359</v>
+      </c>
+      <c r="AD622" t="n">
+        <v>80.73000335693359</v>
+      </c>
+      <c r="AE622" t="n">
+        <v>290500</v>
+      </c>
+      <c r="AF622" t="n">
+        <v>0.01792162375547576</v>
+      </c>
+      <c r="AG622" t="n">
+        <v>-0.006644435935003601</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B623" t="n">
+        <v>2323.300048828125</v>
+      </c>
+      <c r="C623" t="n">
+        <v>2332.89990234375</v>
+      </c>
+      <c r="D623" t="n">
+        <v>2322.699951171875</v>
+      </c>
+      <c r="E623" t="n">
+        <v>2330</v>
+      </c>
+      <c r="F623" t="n">
+        <v>2330</v>
+      </c>
+      <c r="G623" t="n">
+        <v>99</v>
+      </c>
+      <c r="H623" t="n">
+        <v>0.004391420065570159</v>
+      </c>
+      <c r="I623" t="n">
+        <v>0.002883807958965293</v>
+      </c>
+      <c r="J623" t="n">
+        <v>999.0999755859375</v>
+      </c>
+      <c r="K623" t="n">
+        <v>999.0999755859375</v>
+      </c>
+      <c r="L623" t="n">
+        <v>999.0999755859375</v>
+      </c>
+      <c r="M623" t="n">
+        <v>999.0999755859375</v>
+      </c>
+      <c r="N623" t="n">
+        <v>999.0999755859375</v>
+      </c>
+      <c r="O623" t="n">
+        <v>8</v>
+      </c>
+      <c r="P623" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q623" t="n">
+        <v>0</v>
+      </c>
+      <c r="R623" t="n">
+        <v>4.480000019073486</v>
+      </c>
+      <c r="S623" t="n">
+        <v>4.526999950408936</v>
+      </c>
+      <c r="T623" t="n">
+        <v>4.476500034332275</v>
+      </c>
+      <c r="U623" t="n">
+        <v>4.526999950408936</v>
+      </c>
+      <c r="V623" t="n">
+        <v>4.526999950408936</v>
+      </c>
+      <c r="W623" t="n">
+        <v>668</v>
+      </c>
+      <c r="X623" t="n">
+        <v>0.01128111598109098</v>
+      </c>
+      <c r="Y623" t="n">
+        <v>0.01049105605699737</v>
+      </c>
+      <c r="Z623" t="n">
+        <v>80.44999694824219</v>
+      </c>
+      <c r="AA623" t="n">
+        <v>81.77999877929688</v>
+      </c>
+      <c r="AB623" t="n">
+        <v>80.23000335693359</v>
+      </c>
+      <c r="AC623" t="n">
+        <v>81.62999725341797</v>
+      </c>
+      <c r="AD623" t="n">
+        <v>81.62999725341797</v>
+      </c>
+      <c r="AE623" t="n">
+        <v>271745</v>
+      </c>
+      <c r="AF623" t="n">
+        <v>0.01931939869761115</v>
+      </c>
+      <c r="AG623" t="n">
+        <v>0.01466749968847033</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B624" t="n">
+        <v>2324.39990234375</v>
+      </c>
+      <c r="C624" t="n">
+        <v>2333</v>
+      </c>
+      <c r="D624" t="n">
+        <v>2316.60009765625</v>
+      </c>
+      <c r="E624" t="n">
+        <v>2316.60009765625</v>
+      </c>
+      <c r="F624" t="n">
+        <v>2316.60009765625</v>
+      </c>
+      <c r="G624" t="n">
+        <v>105</v>
+      </c>
+      <c r="H624" t="n">
+        <v>0.007079297959255939</v>
+      </c>
+      <c r="I624" t="n">
+        <v>-0.003355620811907307</v>
+      </c>
+      <c r="J624" t="n">
+        <v>983.7000122070312</v>
+      </c>
+      <c r="K624" t="n">
+        <v>983.7000122070312</v>
+      </c>
+      <c r="L624" t="n">
+        <v>983.7000122070312</v>
+      </c>
+      <c r="M624" t="n">
+        <v>983.7000122070312</v>
+      </c>
+      <c r="N624" t="n">
+        <v>983.7000122070312</v>
+      </c>
+      <c r="O624" t="n">
+        <v>8</v>
+      </c>
+      <c r="P624" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q624" t="n">
+        <v>0</v>
+      </c>
+      <c r="R624" t="n">
+        <v>4.511499881744385</v>
+      </c>
+      <c r="S624" t="n">
+        <v>4.511499881744385</v>
+      </c>
+      <c r="T624" t="n">
+        <v>4.367499828338623</v>
+      </c>
+      <c r="U624" t="n">
+        <v>4.38100004196167</v>
+      </c>
+      <c r="V624" t="n">
+        <v>4.38100004196167</v>
+      </c>
+      <c r="W624" t="n">
+        <v>690</v>
+      </c>
+      <c r="X624" t="n">
+        <v>0.03297082062176947</v>
+      </c>
+      <c r="Y624" t="n">
+        <v>-0.02892604304629987</v>
+      </c>
+      <c r="Z624" t="n">
+        <v>81.69999694824219</v>
+      </c>
+      <c r="AA624" t="n">
+        <v>81.90000152587891</v>
+      </c>
+      <c r="AB624" t="n">
+        <v>80.55000305175781</v>
+      </c>
+      <c r="AC624" t="n">
+        <v>80.83000183105469</v>
+      </c>
+      <c r="AD624" t="n">
+        <v>80.83000183105469</v>
+      </c>
+      <c r="AE624" t="n">
+        <v>286038</v>
+      </c>
+      <c r="AF624" t="n">
+        <v>0.01675975695809279</v>
+      </c>
+      <c r="AG624" t="n">
+        <v>-0.01064865544289617</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B625" t="n">
+        <v>2307.89990234375</v>
+      </c>
+      <c r="C625" t="n">
+        <v>2314.39990234375</v>
+      </c>
+      <c r="D625" t="n">
+        <v>2298</v>
+      </c>
+      <c r="E625" t="n">
+        <v>2299.199951171875</v>
+      </c>
+      <c r="F625" t="n">
+        <v>2299.199951171875</v>
+      </c>
+      <c r="G625" t="n">
+        <v>986</v>
+      </c>
+      <c r="H625" t="n">
+        <v>0.007136598060813751</v>
+      </c>
+      <c r="I625" t="n">
+        <v>-0.00376963973309237</v>
+      </c>
+      <c r="J625" t="n">
+        <v>1020.700012207031</v>
+      </c>
+      <c r="K625" t="n">
+        <v>1020.700012207031</v>
+      </c>
+      <c r="L625" t="n">
+        <v>1020.700012207031</v>
+      </c>
+      <c r="M625" t="n">
+        <v>1020.700012207031</v>
+      </c>
+      <c r="N625" t="n">
+        <v>1020.700012207031</v>
+      </c>
+      <c r="O625" t="n">
+        <v>7691</v>
+      </c>
+      <c r="P625" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q625" t="n">
+        <v>0</v>
+      </c>
+      <c r="R625" t="n">
+        <v>4.363500118255615</v>
+      </c>
+      <c r="S625" t="n">
+        <v>4.367499828338623</v>
+      </c>
+      <c r="T625" t="n">
+        <v>4.36299991607666</v>
+      </c>
+      <c r="U625" t="n">
+        <v>4.367499828338623</v>
+      </c>
+      <c r="V625" t="n">
+        <v>4.367499828338623</v>
+      </c>
+      <c r="W625" t="n">
+        <v>27282</v>
+      </c>
+      <c r="X625" t="n">
+        <v>0.001031380322832861</v>
+      </c>
+      <c r="Y625" t="n">
+        <v>0.0009166288471665645</v>
+      </c>
+      <c r="Z625" t="n">
+        <v>80.72000122070312</v>
+      </c>
+      <c r="AA625" t="n">
+        <v>81.62999725341797</v>
+      </c>
+      <c r="AB625" t="n">
+        <v>80.18000030517578</v>
+      </c>
+      <c r="AC625" t="n">
+        <v>80.90000152587891</v>
+      </c>
+      <c r="AD625" t="n">
+        <v>80.90000152587891</v>
+      </c>
+      <c r="AE625" t="n">
+        <v>308410</v>
+      </c>
+      <c r="AF625" t="n">
+        <v>0.01808427217165509</v>
+      </c>
+      <c r="AG625" t="n">
+        <v>0.002229934371329205</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B626" t="n">
+        <v>2296.800048828125</v>
+      </c>
+      <c r="C626" t="n">
+        <v>2329</v>
+      </c>
+      <c r="D626" t="n">
+        <v>2295</v>
+      </c>
+      <c r="E626" t="n">
+        <v>2324.5</v>
+      </c>
+      <c r="F626" t="n">
+        <v>2324.5</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1532</v>
+      </c>
+      <c r="H626" t="n">
+        <v>0.01481481481481482</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0.0120602362343244</v>
+      </c>
+      <c r="J626" t="n">
+        <v>1016.5</v>
+      </c>
+      <c r="K626" t="n">
+        <v>1016.700012207031</v>
+      </c>
+      <c r="L626" t="n">
+        <v>986.4000244140625</v>
+      </c>
+      <c r="M626" t="n">
+        <v>991.7000122070312</v>
+      </c>
+      <c r="N626" t="n">
+        <v>991.7000122070312</v>
+      </c>
+      <c r="O626" t="n">
+        <v>3307</v>
+      </c>
+      <c r="P626" t="n">
+        <v>0.03071774842155689</v>
+      </c>
+      <c r="Q626" t="n">
+        <v>-0.02439743019475529</v>
+      </c>
+      <c r="R626" t="n">
+        <v>4.359000205993652</v>
+      </c>
+      <c r="S626" t="n">
+        <v>4.365499973297119</v>
+      </c>
+      <c r="T626" t="n">
+        <v>4.304999828338623</v>
+      </c>
+      <c r="U626" t="n">
+        <v>4.328499794006348</v>
+      </c>
+      <c r="V626" t="n">
+        <v>4.328499794006348</v>
+      </c>
+      <c r="W626" t="n">
+        <v>6440</v>
+      </c>
+      <c r="X626" t="n">
+        <v>0.01405346048105284</v>
+      </c>
+      <c r="Y626" t="n">
+        <v>-0.006997111848117472</v>
+      </c>
+      <c r="Z626" t="n">
+        <v>80.86000061035156</v>
+      </c>
+      <c r="AA626" t="n">
+        <v>82.04000091552734</v>
+      </c>
+      <c r="AB626" t="n">
+        <v>80.51000213623047</v>
+      </c>
+      <c r="AC626" t="n">
+        <v>81.73999786376953</v>
+      </c>
+      <c r="AD626" t="n">
+        <v>81.73999786376953</v>
+      </c>
+      <c r="AE626" t="n">
+        <v>306342</v>
+      </c>
+      <c r="AF626" t="n">
+        <v>0.01900383478698676</v>
+      </c>
+      <c r="AG626" t="n">
+        <v>0.01088297361829741</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B627" t="n">
+        <v>2325.39990234375</v>
+      </c>
+      <c r="C627" t="n">
+        <v>2338.300048828125</v>
+      </c>
+      <c r="D627" t="n">
+        <v>2319</v>
+      </c>
+      <c r="E627" t="n">
+        <v>2327.699951171875</v>
+      </c>
+      <c r="F627" t="n">
+        <v>2327.699951171875</v>
+      </c>
+      <c r="G627" t="n">
+        <v>92</v>
+      </c>
+      <c r="H627" t="n">
+        <v>0.008322573880174645</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0.000989098187286755</v>
+      </c>
+      <c r="J627" t="n">
+        <v>988.9000244140625</v>
+      </c>
+      <c r="K627" t="n">
+        <v>1012.400024414062</v>
+      </c>
+      <c r="L627" t="n">
+        <v>987.5</v>
+      </c>
+      <c r="M627" t="n">
+        <v>1001.900024414062</v>
+      </c>
+      <c r="N627" t="n">
+        <v>1001.900024414062</v>
+      </c>
+      <c r="O627" t="n">
+        <v>67</v>
+      </c>
+      <c r="P627" t="n">
+        <v>0.02521521459651899</v>
+      </c>
+      <c r="Q627" t="n">
+        <v>0.01314591938421954</v>
+      </c>
+      <c r="R627" t="n">
+        <v>4.326499938964844</v>
+      </c>
+      <c r="S627" t="n">
+        <v>4.415999889373779</v>
+      </c>
+      <c r="T627" t="n">
+        <v>4.318999767303467</v>
+      </c>
+      <c r="U627" t="n">
+        <v>4.390500068664551</v>
+      </c>
+      <c r="V627" t="n">
+        <v>4.390500068664551</v>
+      </c>
+      <c r="W627" t="n">
+        <v>1413</v>
+      </c>
+      <c r="X627" t="n">
+        <v>0.0224589319973207</v>
+      </c>
+      <c r="Y627" t="n">
+        <v>0.01479258768116837</v>
+      </c>
+      <c r="Z627" t="n">
+        <v>81.86000061035156</v>
+      </c>
+      <c r="AA627" t="n">
+        <v>82.72000122070312</v>
+      </c>
+      <c r="AB627" t="n">
+        <v>80.97000122070312</v>
+      </c>
+      <c r="AC627" t="n">
+        <v>81.54000091552734</v>
+      </c>
+      <c r="AD627" t="n">
+        <v>81.54000091552734</v>
+      </c>
+      <c r="AE627" t="n">
+        <v>260252</v>
+      </c>
+      <c r="AF627" t="n">
+        <v>0.02161294273949627</v>
+      </c>
+      <c r="AG627" t="n">
+        <v>-0.003909109362793645</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B628" t="n">
         <v>2323.800048828125</v>
       </c>
-      <c r="E615" t="n">
-        <v>2328.199951171875</v>
-      </c>
-      <c r="F615" t="n">
-        <v>2328.199951171875</v>
-      </c>
-      <c r="G615" t="n">
-        <v>22187</v>
-      </c>
-      <c r="H615" t="n">
-        <v>0.007530768410485712</v>
-      </c>
-      <c r="I615" t="n">
-        <v>-0.005425243155061686</v>
-      </c>
-      <c r="J615" t="n">
-        <v>964.5</v>
-      </c>
-      <c r="K615" t="n">
-        <v>965.5</v>
-      </c>
-      <c r="L615" t="n">
-        <v>951</v>
-      </c>
-      <c r="M615" t="n">
-        <v>951.2000122070312</v>
-      </c>
-      <c r="N615" t="n">
-        <v>951.2000122070312</v>
-      </c>
-      <c r="O615" t="n">
-        <v>3289</v>
-      </c>
-      <c r="P615" t="n">
-        <v>0.01524710830704522</v>
-      </c>
-      <c r="Q615" t="n">
-        <v>-0.01378951559664982</v>
-      </c>
-      <c r="R615" t="n">
-        <v>4.533500194549561</v>
-      </c>
-      <c r="S615" t="n">
-        <v>4.539999961853027</v>
-      </c>
-      <c r="T615" t="n">
-        <v>4.490499973297119</v>
-      </c>
-      <c r="U615" t="n">
-        <v>4.506499767303467</v>
-      </c>
-      <c r="V615" t="n">
-        <v>4.506499767303467</v>
-      </c>
-      <c r="W615" t="n">
-        <v>7811</v>
-      </c>
-      <c r="X615" t="n">
-        <v>0.01102326886766757</v>
-      </c>
-      <c r="Y615" t="n">
-        <v>-0.00595575738114123</v>
-      </c>
-      <c r="Z615" t="n">
-        <v>78.37000274658203</v>
-      </c>
-      <c r="AA615" t="n">
-        <v>78.40000152587891</v>
-      </c>
-      <c r="AB615" t="n">
-        <v>78.06999969482422</v>
-      </c>
-      <c r="AC615" t="n">
-        <v>78.30000305175781</v>
-      </c>
-      <c r="AD615" t="n">
-        <v>78.30000305175781</v>
-      </c>
-      <c r="AE615" t="n">
-        <v>9183</v>
-      </c>
-      <c r="AF615" t="n">
-        <v>0.004226999261491806</v>
-      </c>
-      <c r="AG615" t="n">
-        <v>-0.0008931950028197704</v>
+      <c r="C628" t="n">
+        <v>2329.699951171875</v>
+      </c>
+      <c r="D628" t="n">
+        <v>2321.699951171875</v>
+      </c>
+      <c r="E628" t="n">
+        <v>2327.60009765625</v>
+      </c>
+      <c r="F628" t="n">
+        <v>2327.60009765625</v>
+      </c>
+      <c r="G628" t="n">
+        <v>237</v>
+      </c>
+      <c r="H628" t="n">
+        <v>0.003445751030817746</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0.001635273581322686</v>
+      </c>
+      <c r="J628" t="n">
+        <v>983.2000122070312</v>
+      </c>
+      <c r="K628" t="n">
+        <v>990.7999877929688</v>
+      </c>
+      <c r="L628" t="n">
+        <v>978.2999877929688</v>
+      </c>
+      <c r="M628" t="n">
+        <v>978.2999877929688</v>
+      </c>
+      <c r="N628" t="n">
+        <v>978.2999877929688</v>
+      </c>
+      <c r="O628" t="n">
+        <v>21</v>
+      </c>
+      <c r="P628" t="n">
+        <v>0.01277726684654247</v>
+      </c>
+      <c r="Q628" t="n">
+        <v>-0.004983751376348344</v>
+      </c>
+      <c r="R628" t="n">
+        <v>4.388500213623047</v>
+      </c>
+      <c r="S628" t="n">
+        <v>4.433499813079834</v>
+      </c>
+      <c r="T628" t="n">
+        <v>4.362500190734863</v>
+      </c>
+      <c r="U628" t="n">
+        <v>4.426499843597412</v>
+      </c>
+      <c r="V628" t="n">
+        <v>4.426499843597412</v>
+      </c>
+      <c r="W628" t="n">
+        <v>991</v>
+      </c>
+      <c r="X628" t="n">
+        <v>0.01627498435318368</v>
+      </c>
+      <c r="Y628" t="n">
+        <v>0.008658910362224546</v>
+      </c>
+      <c r="Z628" t="n">
+        <v>81.44999694824219</v>
+      </c>
+      <c r="AA628" t="n">
+        <v>83.63999938964844</v>
+      </c>
+      <c r="AB628" t="n">
+        <v>81.37999725341797</v>
+      </c>
+      <c r="AC628" t="n">
+        <v>83.37999725341797</v>
+      </c>
+      <c r="AD628" t="n">
+        <v>83.37999725341797</v>
+      </c>
+      <c r="AE628" t="n">
+        <v>345780</v>
+      </c>
+      <c r="AF628" t="n">
+        <v>0.02777097828097492</v>
+      </c>
+      <c r="AG628" t="n">
+        <v>0.02369552335775052</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B629" t="n">
+        <v>2330.699951171875</v>
+      </c>
+      <c r="C629" t="n">
+        <v>2334.60009765625</v>
+      </c>
+      <c r="D629" t="n">
+        <v>2323</v>
+      </c>
+      <c r="E629" t="n">
+        <v>2323</v>
+      </c>
+      <c r="F629" t="n">
+        <v>2323</v>
+      </c>
+      <c r="G629" t="n">
+        <v>30</v>
+      </c>
+      <c r="H629" t="n">
+        <v>0.004993584871394749</v>
+      </c>
+      <c r="I629" t="n">
+        <v>-0.003303707612815398</v>
+      </c>
+      <c r="J629" t="n">
+        <v>998.2000122070312</v>
+      </c>
+      <c r="K629" t="n">
+        <v>1003.599975585938</v>
+      </c>
+      <c r="L629" t="n">
+        <v>998.2000122070312</v>
+      </c>
+      <c r="M629" t="n">
+        <v>998.2000122070312</v>
+      </c>
+      <c r="N629" t="n">
+        <v>998.2000122070312</v>
+      </c>
+      <c r="O629" t="n">
+        <v>2</v>
+      </c>
+      <c r="P629" t="n">
+        <v>0.005409700774263538</v>
+      </c>
+      <c r="Q629" t="n">
+        <v>0</v>
+      </c>
+      <c r="R629" t="n">
+        <v>4.423999786376953</v>
+      </c>
+      <c r="S629" t="n">
+        <v>4.473999977111816</v>
+      </c>
+      <c r="T629" t="n">
+        <v>4.400499820709229</v>
+      </c>
+      <c r="U629" t="n">
+        <v>4.429500102996826</v>
+      </c>
+      <c r="V629" t="n">
+        <v>4.429500102996826</v>
+      </c>
+      <c r="W629" t="n">
+        <v>894</v>
+      </c>
+      <c r="X629" t="n">
+        <v>0.01670268364895465</v>
+      </c>
+      <c r="Y629" t="n">
+        <v>0.00124329043523249</v>
+      </c>
+      <c r="Z629" t="n">
+        <v>83.43000030517578</v>
+      </c>
+      <c r="AA629" t="n">
+        <v>84.37999725341797</v>
+      </c>
+      <c r="AB629" t="n">
+        <v>82.72000122070312</v>
+      </c>
+      <c r="AC629" t="n">
+        <v>82.80999755859375</v>
+      </c>
+      <c r="AD629" t="n">
+        <v>82.80999755859375</v>
+      </c>
+      <c r="AE629" t="n">
+        <v>367787</v>
+      </c>
+      <c r="AF629" t="n">
+        <v>0.02006765000263782</v>
+      </c>
+      <c r="AG629" t="n">
+        <v>-0.007431412493277527</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B630" t="n">
+        <v>2330.89990234375</v>
+      </c>
+      <c r="C630" t="n">
+        <v>2361.60009765625</v>
+      </c>
+      <c r="D630" t="n">
+        <v>2330.89990234375</v>
+      </c>
+      <c r="E630" t="n">
+        <v>2359.800048828125</v>
+      </c>
+      <c r="F630" t="n">
+        <v>2359.800048828125</v>
+      </c>
+      <c r="G630" t="n">
+        <v>59</v>
+      </c>
+      <c r="H630" t="n">
+        <v>0.01317096254610958</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0.01239870766450139</v>
+      </c>
+      <c r="J630" t="n">
+        <v>1002</v>
+      </c>
+      <c r="K630" t="n">
+        <v>1002</v>
+      </c>
+      <c r="L630" t="n">
+        <v>1002</v>
+      </c>
+      <c r="M630" t="n">
+        <v>1002</v>
+      </c>
+      <c r="N630" t="n">
+        <v>1002</v>
+      </c>
+      <c r="O630" t="n">
+        <v>0</v>
+      </c>
+      <c r="P630" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q630" t="n">
+        <v>0</v>
+      </c>
+      <c r="R630" t="n">
+        <v>4.452499866485596</v>
+      </c>
+      <c r="S630" t="n">
+        <v>4.564499855041504</v>
+      </c>
+      <c r="T630" t="n">
+        <v>4.452499866485596</v>
+      </c>
+      <c r="U630" t="n">
+        <v>4.540999889373779</v>
+      </c>
+      <c r="V630" t="n">
+        <v>4.540999889373779</v>
+      </c>
+      <c r="W630" t="n">
+        <v>821</v>
+      </c>
+      <c r="X630" t="n">
+        <v>0.02515440582018725</v>
+      </c>
+      <c r="Y630" t="n">
+        <v>0.01987647962762042</v>
+      </c>
+      <c r="Z630" t="n">
+        <v>83.19999694824219</v>
+      </c>
+      <c r="AA630" t="n">
+        <v>83.93000030517578</v>
+      </c>
+      <c r="AB630" t="n">
+        <v>82.45999908447266</v>
+      </c>
+      <c r="AC630" t="n">
+        <v>83.87999725341797</v>
+      </c>
+      <c r="AD630" t="n">
+        <v>83.87999725341797</v>
+      </c>
+      <c r="AE630" t="n">
+        <v>289685</v>
+      </c>
+      <c r="AF630" t="n">
+        <v>0.01782684012883925</v>
+      </c>
+      <c r="AG630" t="n">
+        <v>0.008173080890841884</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B631" t="n">
+        <v>2354.89990234375</v>
+      </c>
+      <c r="C631" t="n">
+        <v>2388.5</v>
+      </c>
+      <c r="D631" t="n">
+        <v>2354.89990234375</v>
+      </c>
+      <c r="E631" t="n">
+        <v>2388.5</v>
+      </c>
+      <c r="F631" t="n">
+        <v>2388.5</v>
+      </c>
+      <c r="G631" t="n">
+        <v>72</v>
+      </c>
+      <c r="H631" t="n">
+        <v>0.01426816384968592</v>
+      </c>
+      <c r="I631" t="n">
+        <v>0.01426816384968592</v>
+      </c>
+      <c r="J631" t="n">
+        <v>1039.099975585938</v>
+      </c>
+      <c r="K631" t="n">
+        <v>1039.199951171875</v>
+      </c>
+      <c r="L631" t="n">
+        <v>1032.300048828125</v>
+      </c>
+      <c r="M631" t="n">
+        <v>1035.300048828125</v>
+      </c>
+      <c r="N631" t="n">
+        <v>1035.300048828125</v>
+      </c>
+      <c r="O631" t="n">
+        <v>7</v>
+      </c>
+      <c r="P631" t="n">
+        <v>0.006684008541492197</v>
+      </c>
+      <c r="Q631" t="n">
+        <v>-0.003656940474538806</v>
+      </c>
+      <c r="R631" t="n">
+        <v>4.544000148773193</v>
+      </c>
+      <c r="S631" t="n">
+        <v>4.679999828338623</v>
+      </c>
+      <c r="T631" t="n">
+        <v>4.544000148773193</v>
+      </c>
+      <c r="U631" t="n">
+        <v>4.658500194549561</v>
+      </c>
+      <c r="V631" t="n">
+        <v>4.658500194549561</v>
+      </c>
+      <c r="W631" t="n">
+        <v>495</v>
+      </c>
+      <c r="X631" t="n">
+        <v>0.02992950596670808</v>
+      </c>
+      <c r="Y631" t="n">
+        <v>0.02519807262930666</v>
+      </c>
+      <c r="Z631" t="n">
+        <v>83.59999847412109</v>
+      </c>
+      <c r="AA631" t="n">
+        <v>84.51999664306641</v>
+      </c>
+      <c r="AB631" t="n">
+        <v>83.01999664306641</v>
+      </c>
+      <c r="AC631" t="n">
+        <v>83.16000366210938</v>
+      </c>
+      <c r="AD631" t="n">
+        <v>83.16000366210938</v>
+      </c>
+      <c r="AE631" t="n">
+        <v>361357</v>
+      </c>
+      <c r="AF631" t="n">
+        <v>0.01806793616782536</v>
+      </c>
+      <c r="AG631" t="n">
+        <v>-0.005263095933523514</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B632" t="n">
+        <v>2381.699951171875</v>
+      </c>
+      <c r="C632" t="n">
+        <v>2383.800048828125</v>
+      </c>
+      <c r="D632" t="n">
+        <v>2352.800048828125</v>
+      </c>
+      <c r="E632" t="n">
+        <v>2355.199951171875</v>
+      </c>
+      <c r="F632" t="n">
+        <v>2355.199951171875</v>
+      </c>
+      <c r="G632" t="n">
+        <v>64</v>
+      </c>
+      <c r="H632" t="n">
+        <v>0.01317579027399306</v>
+      </c>
+      <c r="I632" t="n">
+        <v>-0.0111265065051377</v>
+      </c>
+      <c r="J632" t="n">
+        <v>1003.700012207031</v>
+      </c>
+      <c r="K632" t="n">
+        <v>1003.700012207031</v>
+      </c>
+      <c r="L632" t="n">
+        <v>1003.700012207031</v>
+      </c>
+      <c r="M632" t="n">
+        <v>1003.700012207031</v>
+      </c>
+      <c r="N632" t="n">
+        <v>1003.700012207031</v>
+      </c>
+      <c r="O632" t="n">
+        <v>0</v>
+      </c>
+      <c r="P632" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q632" t="n">
+        <v>0</v>
+      </c>
+      <c r="R632" t="n">
+        <v>4.609000205993652</v>
+      </c>
+      <c r="S632" t="n">
+        <v>4.667500019073486</v>
+      </c>
+      <c r="T632" t="n">
+        <v>4.607500076293945</v>
+      </c>
+      <c r="U632" t="n">
+        <v>4.622000217437744</v>
+      </c>
+      <c r="V632" t="n">
+        <v>4.622000217437744</v>
+      </c>
+      <c r="W632" t="n">
+        <v>561</v>
+      </c>
+      <c r="X632" t="n">
+        <v>0.01302223370288083</v>
+      </c>
+      <c r="Y632" t="n">
+        <v>0.002820570809952726</v>
+      </c>
+      <c r="Z632" t="n">
+        <v>83.15000152587891</v>
+      </c>
+      <c r="AA632" t="n">
+        <v>83.31999969482422</v>
+      </c>
+      <c r="AB632" t="n">
+        <v>82.08000183105469</v>
+      </c>
+      <c r="AC632" t="n">
+        <v>82.33000183105469</v>
+      </c>
+      <c r="AD632" t="n">
+        <v>82.33000183105469</v>
+      </c>
+      <c r="AE632" t="n">
+        <v>251774</v>
+      </c>
+      <c r="AF632" t="n">
+        <v>0.01510718611242017</v>
+      </c>
+      <c r="AG632" t="n">
+        <v>-0.009861691879452449</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B633" t="n">
+        <v>2363.10009765625</v>
+      </c>
+      <c r="C633" t="n">
+        <v>2363.699951171875</v>
+      </c>
+      <c r="D633" t="n">
+        <v>2360.10009765625</v>
+      </c>
+      <c r="E633" t="n">
+        <v>2360.10009765625</v>
+      </c>
+      <c r="F633" t="n">
+        <v>2360.10009765625</v>
+      </c>
+      <c r="G633" t="n">
+        <v>64</v>
+      </c>
+      <c r="H633" t="n">
+        <v>0.00152529696481938</v>
+      </c>
+      <c r="I633" t="n">
+        <v>-0.001269518799891479</v>
+      </c>
+      <c r="J633" t="n">
+        <v>996.2999877929688</v>
+      </c>
+      <c r="K633" t="n">
+        <v>996.2999877929688</v>
+      </c>
+      <c r="L633" t="n">
+        <v>989.7000122070312</v>
+      </c>
+      <c r="M633" t="n">
+        <v>989.7000122070312</v>
+      </c>
+      <c r="N633" t="n">
+        <v>989.7000122070312</v>
+      </c>
+      <c r="O633" t="n">
+        <v>0</v>
+      </c>
+      <c r="P633" t="n">
+        <v>0.00666866273065871</v>
+      </c>
+      <c r="Q633" t="n">
+        <v>-0.006624486265986962</v>
+      </c>
+      <c r="R633" t="n">
+        <v>4.616499900817871</v>
+      </c>
+      <c r="S633" t="n">
+        <v>4.646999835968018</v>
+      </c>
+      <c r="T633" t="n">
+        <v>4.559000015258789</v>
+      </c>
+      <c r="U633" t="n">
+        <v>4.578000068664551</v>
+      </c>
+      <c r="V633" t="n">
+        <v>4.578000068664551</v>
+      </c>
+      <c r="W633" t="n">
+        <v>561</v>
+      </c>
+      <c r="X633" t="n">
+        <v>0.01930243922235066</v>
+      </c>
+      <c r="Y633" t="n">
+        <v>-0.00833961507212414</v>
+      </c>
+      <c r="Z633" t="n">
+        <v>82.22000122070312</v>
+      </c>
+      <c r="AA633" t="n">
+        <v>82.48000335693359</v>
+      </c>
+      <c r="AB633" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="AC633" t="n">
+        <v>81.41000366210938</v>
+      </c>
+      <c r="AD633" t="n">
+        <v>81.41000366210938</v>
+      </c>
+      <c r="AE633" t="n">
+        <v>251774</v>
+      </c>
+      <c r="AF633" t="n">
+        <v>0.01513850285456731</v>
+      </c>
+      <c r="AG633" t="n">
+        <v>-0.009851587771441085</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B634" t="n">
+        <v>2371</v>
+      </c>
+      <c r="C634" t="n">
+        <v>2376.800048828125</v>
+      </c>
+      <c r="D634" t="n">
+        <v>2369.699951171875</v>
+      </c>
+      <c r="E634" t="n">
+        <v>2373.89990234375</v>
+      </c>
+      <c r="F634" t="n">
+        <v>2373.89990234375</v>
+      </c>
+      <c r="G634" t="n">
+        <v>15625</v>
+      </c>
+      <c r="H634" t="n">
+        <v>0.002996201123580573</v>
+      </c>
+      <c r="I634" t="n">
+        <v>0.001223071422922817</v>
+      </c>
+      <c r="J634" t="n">
+        <v>1000.900024414062</v>
+      </c>
+      <c r="K634" t="n">
+        <v>1002.299987792969</v>
+      </c>
+      <c r="L634" t="n">
+        <v>995.0999755859375</v>
+      </c>
+      <c r="M634" t="n">
+        <v>995.2999877929688</v>
+      </c>
+      <c r="N634" t="n">
+        <v>995.2999877929688</v>
+      </c>
+      <c r="O634" t="n">
+        <v>2040</v>
+      </c>
+      <c r="P634" t="n">
+        <v>0.007235466167901088</v>
+      </c>
+      <c r="Q634" t="n">
+        <v>-0.005595000983611795</v>
+      </c>
+      <c r="R634" t="n">
+        <v>4.583000183105469</v>
+      </c>
+      <c r="S634" t="n">
+        <v>4.588500022888184</v>
+      </c>
+      <c r="T634" t="n">
+        <v>4.561999797821045</v>
+      </c>
+      <c r="U634" t="n">
+        <v>4.564499855041504</v>
+      </c>
+      <c r="V634" t="n">
+        <v>4.564499855041504</v>
+      </c>
+      <c r="W634" t="n">
+        <v>4860</v>
+      </c>
+      <c r="X634" t="n">
+        <v>0.005808905357645131</v>
+      </c>
+      <c r="Y634" t="n">
+        <v>-0.004036728632951725</v>
+      </c>
+      <c r="Z634" t="n">
+        <v>81.80999755859375</v>
+      </c>
+      <c r="AA634" t="n">
+        <v>81.80999755859375</v>
+      </c>
+      <c r="AB634" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="AC634" t="n">
+        <v>81.27999877929688</v>
+      </c>
+      <c r="AD634" t="n">
+        <v>81.27999877929688</v>
+      </c>
+      <c r="AE634" t="n">
+        <v>7493</v>
+      </c>
+      <c r="AF634" t="n">
+        <v>0.006892277644230769</v>
+      </c>
+      <c r="AG634" t="n">
+        <v>-0.006478410892474121</v>
       </c>
     </row>
   </sheetData>
